--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_18-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_18-11.xlsx
@@ -122,6 +122,9 @@
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
   </si>
   <si>
     <t>SPASMOPYRALGIN 30 TAB</t>
+  </si>
+  <si>
+    <t>STEADYFUTAL 24 MG 40 TAB.</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -1333,17 +1339,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1359,17 +1365,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1377,7 +1383,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1385,13 +1391,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1411,17 +1417,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1437,13 +1443,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1455,7 +1461,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1463,17 +1469,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1489,17 +1495,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1515,17 +1521,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1533,7 +1539,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1541,13 +1547,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1567,17 +1573,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>51.299999999999997</v>
+        <v>22</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1585,7 +1591,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1593,13 +1599,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>49</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1619,17 +1625,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1637,7 +1643,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1645,17 +1651,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1671,13 +1677,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1703,11 +1709,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1723,17 +1729,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1741,7 +1747,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1749,17 +1755,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1775,17 +1781,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1793,7 +1799,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1801,17 +1807,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1819,7 +1825,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1827,13 +1833,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1853,17 +1859,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1879,17 +1885,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1905,17 +1911,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1923,7 +1929,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1931,13 +1937,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>80.75</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1957,13 +1963,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>-86.5</v>
+        <v>80.75</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1983,17 +1989,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>21</v>
+        <v>-86.5</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2009,17 +2015,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2041,11 +2047,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2061,13 +2067,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>99</v>
+        <v>-23</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2087,13 +2093,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2113,17 +2119,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2145,11 +2151,11 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2165,13 +2171,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2191,17 +2197,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2209,7 +2215,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2217,17 +2223,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2235,7 +2241,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2243,13 +2249,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2261,7 +2267,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2269,17 +2275,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2287,7 +2293,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2295,51 +2301,103 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="K60" s="10">
-        <v>2840.1700000000001</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="25.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>57</v>
+      </c>
+      <c t="s" r="B60" s="7">
         <v>88</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c t="s" r="F61" s="12">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c t="s" r="H60" s="8">
+        <v>51</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9">
+        <v>48</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c t="s" r="N60" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>58</v>
+      </c>
+      <c t="s" r="B61" s="7">
         <v>89</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c t="s" r="I61" s="14">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c t="s" r="H61" s="8">
+        <v>64</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c t="s" r="N61" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="26.25" customHeight="1">
+      <c r="K62" s="10">
+        <v>2950.1700000000001</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="11">
         <v>90</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c t="s" r="F63" s="12">
+        <v>91</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c t="s" r="I63" s="14">
+        <v>92</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="185">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2515,10 +2573,16 @@
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:N63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
